--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -65,10 +65,25 @@
     <t xml:space="preserve">Prepared the project's base (repository, project template with Vite, fonts, colors, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Header and Product components</t>
+    <t xml:space="preserve">Header and Product(House) components</t>
   </si>
   <si>
     <t xml:space="preserve">Made the site-header and the template for product component + styles to them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houses List Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made the Houses List to render all future houses by passing props to them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made the Listing form + styles. Issue with upload image and issue with rotate «&lt;&gt;» in „garage field“</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -472,9 +487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>924120</xdr:rowOff>
+      <xdr:rowOff>923400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -488,7 +503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="2373480" cy="790920"/>
+          <a:ext cx="2868120" cy="790200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -511,12 +526,12 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="73.76"/>
@@ -592,18 +607,34 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>44999</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>44999</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="7"/>
     </row>
@@ -691,7 +722,9 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
     </row>
@@ -785,11 +818,11 @@
     </row>
     <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B30" s="17" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t xml:space="preserve">Made the Listing form + styles. Issue with upload image and issue with rotate «&lt;&gt;» in „garage field“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Details Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made the House Details component.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had an issue with resizing the 'Houses List' component that I am using on the same page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About, Delete and GrayBackground components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made those 3 components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add router package and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked the pages together and added events to them. Firstly, had an issue with rendering.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -487,9 +508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>116640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>923400</xdr:rowOff>
+      <xdr:rowOff>923040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -503,7 +524,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="2868120" cy="790200"/>
+          <a:ext cx="2867760" cy="789840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,10 +547,10 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.93"/>
@@ -639,34 +660,66 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="7"/>
     </row>
@@ -723,7 +776,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
@@ -818,11 +871,11 @@
     </row>
     <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" s="17" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -98,10 +98,29 @@
     <t xml:space="preserve">Made those 3 components</t>
   </si>
   <si>
-    <t xml:space="preserve">Add router package and </t>
+    <t xml:space="preserve">Add router package and router links</t>
   </si>
   <si>
     <t xml:space="preserve">Linked the pages together and added events to them. Firstly, had an issue with rendering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houses List Header (on main.page), Search and Sort component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made this components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had issue with upload image. Still didn’t fix it. Add two-way arrows to garage form to choose, if sb have it or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Details and Listing form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added router-link. Had issue with transfer props to Listing form, which will show eather
+ empty field or house description, ready for editing</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -330,7 +349,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,6 +403,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,9 +531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>116280</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>923040</xdr:rowOff>
+      <xdr:rowOff>922680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -524,7 +547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="2867760" cy="789840"/>
+          <a:ext cx="2867400" cy="789480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,7 +570,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -707,7 +730,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -723,27 +746,51 @@
       <c r="E11" s="12"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="7"/>
     </row>
@@ -776,7 +823,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
@@ -862,49 +909,49 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="17" t="n">
+      <c r="A30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>17</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -121,6 +121,28 @@
   <si>
     <t xml:space="preserve">Added router-link. Had issue with transfer props to Listing form, which will show eather
  empty field or house description, ready for editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit house form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tried to make the Listing form so that it would adjust depending on the props with the URL,
+ whether it is a form for a new home or editing an old one, but I was unsuccessful. So, I made Edit house component.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figuring out how to work with API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used data from the server to display a list of houses in a component through props.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -349,7 +371,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,6 +429,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,9 +557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>922680</xdr:rowOff>
+      <xdr:rowOff>921960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -547,7 +573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="2867400" cy="789480"/>
+          <a:ext cx="2866680" cy="788760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,7 +596,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -794,27 +820,51 @@
       <c r="E14" s="12"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>45002</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>45002</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>45002</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="7"/>
     </row>
@@ -823,7 +873,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
@@ -909,49 +959,49 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="18" t="n">
+      <c r="A30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="19" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>18</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -145,7 +145,48 @@
     <t xml:space="preserve">Used data from the server to display a list of houses in a component through props.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">House Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had an issue with displaying information about the house(if i click on it in House list component). Fixed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Had an issue with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">setting a new margin for the Reccomendation list component (so far,it’s duplicate of houses list)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried to display info about the house in listing form to edit it. Started code API request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing form IMAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed the issue with display image in Listing form. Fixed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored Listing form props.</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -161,7 +202,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -232,6 +273,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -371,7 +418,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -436,6 +483,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,11 +495,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,9 +608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>921960</xdr:rowOff>
+      <xdr:rowOff>920880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -573,7 +624,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="2866680" cy="788760"/>
+          <a:ext cx="2865600" cy="787680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,7 +647,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -604,7 +655,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="73.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="75.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="6.5"/>
   </cols>
   <sheetData>
@@ -869,44 +920,82 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>45005</v>
+      </c>
       <c r="D18" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>45006</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>45006</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
     </row>
@@ -959,49 +1048,49 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="19" t="n">
+      <c r="A30" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="20" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>19</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <r>
       <rPr>
@@ -187,6 +187,25 @@
   </si>
   <si>
     <t xml:space="preserve">Refactored Listing form props.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete view component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed the view's component - "delete house", as it completely reload the page. 
+Now the component looks like a pop-up window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinia and Delete API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored components to use Pinia. Added the ability to delete the house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new House and Upload API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added the ability to create a new house. Had issue with display image.</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -608,9 +627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>920880</xdr:rowOff>
+      <xdr:rowOff>920160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -624,7 +643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="2865600" cy="787680"/>
+          <a:ext cx="2864880" cy="786960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -647,7 +666,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -999,27 +1018,51 @@
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>45007</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>45007</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>45007</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="7"/>
     </row>
@@ -1057,11 +1100,11 @@
     </row>
     <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B30" s="20" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t xml:space="preserve">Added the ability to create a new house. Had issue with display image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing form, Edit API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass ID to listing form. Based on it — dislay either create new house or edit current. Added sending requests for button events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getHouseById, filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added getter. Had issue with filter.</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -253,6 +265,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -266,6 +291,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFEB5340"/>
       <name val="Arial"/>
@@ -273,14 +299,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FFEB5340"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -298,13 +318,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFEB5340"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -379,30 +392,30 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -437,11 +450,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -450,40 +475,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -491,54 +492,98 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,9 +672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>113040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>920160</xdr:rowOff>
+      <xdr:rowOff>919800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -643,7 +688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="2864880" cy="786960"/>
+          <a:ext cx="2864520" cy="786600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,477 +708,501 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="75.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="84.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="6.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="6.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="14" t="n">
         <v>44998</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="14" t="n">
         <v>44998</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="14" t="n">
         <v>44999</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="14" t="n">
         <v>44999</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="14" t="n">
         <v>45000</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="14" t="n">
         <v>45000</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="14" t="n">
         <v>45000</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="14" t="n">
         <v>45000</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="14" t="n">
         <v>45001</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="14" t="n">
         <v>45001</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="14" t="n">
         <v>45001</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="14" t="n">
         <v>45002</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="14" t="n">
         <v>45002</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="14" t="n">
         <v>45002</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="14" t="n">
         <v>45005</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="14" t="n">
         <v>45005</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="14" t="n">
         <v>45005</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="14" t="n">
         <v>45006</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="14" t="n">
         <v>45006</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="14" t="n">
         <v>45007</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="14" t="n">
         <v>45007</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="14" t="n">
         <v>45007</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="7"/>
+      <c r="A26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="14" t="n">
+        <v>45008</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14" t="n">
+        <v>45008</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="20" t="n">
-        <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>36</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="7"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
+      <c r="A33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="28" t="n">
+        <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B31)</f>
+        <v>42</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -220,6 +220,25 @@
     <t xml:space="preserve">Added getter. Had issue with filter.</t>
   </si>
   <si>
+    <t xml:space="preserve">Recommandations getter, HouseListHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added recommendation getter. Moved HouseListHeader to main page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added css to display mobile version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added active tab. Added route to «house/id/delete» (popup)  from main page.  Rewrote some components
+ and removed  components that weren't needed anymore. Other small fixes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total amount of hours</t>
   </si>
 </sst>
@@ -229,9 +248,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -450,7 +469,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,6 +482,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,36 +494,44 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -508,22 +539,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,7 +558,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,43 +574,63 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,9 +719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>919800</xdr:rowOff>
+      <xdr:rowOff>919440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,7 +735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="2864520" cy="786600"/>
+          <a:ext cx="3864240" cy="786240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,498 +758,522 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="84.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="6.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="84.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="6.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="6.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="16" t="n">
         <v>44998</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="16" t="n">
         <v>44998</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="16" t="n">
         <v>44999</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="16" t="n">
         <v>44999</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="16" t="n">
         <v>45000</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="16" t="n">
         <v>45000</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="16" t="n">
         <v>45000</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="16" t="n">
         <v>45000</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="16" t="n">
         <v>45001</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="16" t="n">
         <v>45001</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="16" t="n">
         <v>45001</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="16" t="n">
         <v>45002</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="16" t="n">
         <v>45002</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="16" t="n">
         <v>45002</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="16" t="n">
         <v>45005</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="16" t="n">
         <v>45005</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="13" t="n">
+      <c r="B20" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="16" t="n">
         <v>45005</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="16" t="n">
         <v>45006</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="13" t="n">
+      <c r="B22" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="14" t="n">
+      <c r="C22" s="16" t="n">
         <v>45006</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="13" t="n">
+      <c r="B23" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="14" t="n">
+      <c r="C23" s="16" t="n">
         <v>45007</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="16" t="n">
         <v>45007</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C25" s="14" t="n">
+      <c r="C25" s="16" t="n">
         <v>45007</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C26" s="16" t="n">
         <v>45008</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="16" t="n">
         <v>45008</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="26" t="n">
+        <v>45011</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="11"/>
+      <c r="A29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="26" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="26" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="28" t="n">
+      <c r="A33" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="33" t="n">
         <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B31)</f>
-        <v>42</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -226,6 +226,9 @@
     <t xml:space="preserve">Added recommendation getter. Moved HouseListHeader to main page</t>
   </si>
   <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mobile styles</t>
   </si>
   <si>
@@ -237,6 +240,13 @@
   <si>
     <t xml:space="preserve">Added active tab. Added route to «house/id/delete» (popup)  from main page.  Rewrote some components
  and removed  components that weren't needed anymore. Other small fixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring and other small fixex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added errors popup window, preloader component; Changed About’s description; 
+Fixed indents, minor changes in styles, etc. Tested.</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -469,7 +479,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -576,10 +586,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -719,9 +725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>112320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>919440</xdr:rowOff>
+      <xdr:rowOff>919080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -735,7 +741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="3864240" cy="786240"/>
+          <a:ext cx="3863880" cy="785880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,8 +763,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,12 +1210,14 @@
       <c r="D28" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="24" t="n">
         <v>4</v>
@@ -1218,14 +1226,14 @@
         <v>45012</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="15" t="n">
         <v>4</v>
@@ -1233,47 +1241,57 @@
       <c r="C30" s="26" t="n">
         <v>45012</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>58</v>
+      <c r="D30" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
+    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="26" t="n">
+        <v>45013</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="31"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="33" t="n">
-        <f aca="false">SUMIF(E4:E28,"&lt;&gt;x",B4:B31)</f>
-        <v>45</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="A33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="32" t="n">
+        <f aca="false">SUMIF(E4:E31,"&lt;&gt;x",B4:B31)</f>
+        <v>56</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -247,6 +247,33 @@
   <si>
     <t xml:space="preserve">Added errors popup window, preloader component; Changed About’s description; 
 Fixed indents, minor changes in styles, etc. Tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaced HTML validation with Vuelidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI fixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part of format fixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configured auto formating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part of structure fixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined two components (NewListingHeader and EditListing) into one — ListingFormHeader. Delete unnecessary components. Fixed search.</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -369,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -413,6 +440,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -431,20 +465,6 @@
       <right/>
       <top/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -588,6 +608,30 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,43 +644,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,9 +745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
+      <xdr:colOff>111960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>919080</xdr:rowOff>
+      <xdr:rowOff>918720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -741,7 +761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="3863880" cy="785880"/>
+          <a:ext cx="3863520" cy="785520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -761,10 +781,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1266,32 +1286,85 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="26" t="n">
+        <v>45021</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="27"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="32" t="n">
+      <c r="A33" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="26" t="n">
+        <v>45021</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="26" t="n">
+        <v>45021</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="26" t="n">
+        <v>45021</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="37" t="n">
         <f aca="false">SUMIF(E4:E31,"&lt;&gt;x",B4:B31)</f>
         <v>56</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t xml:space="preserve">Combined two components (NewListingHeader and EditListing) into one — ListingFormHeader. Delete unnecessary components. Fixed search.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored Listing form to small components. Refactored some other recurring elements (house details, backButton and so on)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renamed, added comments, cleaned up, tested and so on.</t>
   </si>
   <si>
     <t xml:space="preserve">Total amount of hours</t>
@@ -396,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -446,27 +458,6 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -499,7 +490,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -632,6 +623,18 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -644,20 +647,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -745,9 +740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>111600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>918720</xdr:rowOff>
+      <xdr:rowOff>918360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -761,7 +756,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149760" y="133200"/>
-          <a:ext cx="3863520" cy="785520"/>
+          <a:ext cx="3863160" cy="785160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,10 +776,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1348,23 +1343,67 @@
       <c r="E35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" s="26" t="n">
+        <v>45023</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="37" t="n">
-        <f aca="false">SUMIF(E4:E31,"&lt;&gt;x",B4:B31)</f>
+      <c r="A37" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="26" t="n">
+        <v>45023</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="34"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="40" t="n">
+        <f aca="false">SUMIF(E4:E31,"&lt;&gt;x",B4:B39)</f>
         <v>56</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
